--- a/data/pca/factorExposure/factorExposure_2012-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00166150843858281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001873577291136443</v>
+      </c>
+      <c r="C2">
+        <v>0.02952449314268397</v>
+      </c>
+      <c r="D2">
+        <v>0.006261191819091363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001180817931775935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006876075723278527</v>
+      </c>
+      <c r="C4">
+        <v>0.0827602320728838</v>
+      </c>
+      <c r="D4">
+        <v>0.07245015044918206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001865621095185748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01372079376368106</v>
+      </c>
+      <c r="C6">
+        <v>0.112771587113031</v>
+      </c>
+      <c r="D6">
+        <v>0.02408567771458798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0007355240302182403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004916868132865964</v>
+      </c>
+      <c r="C7">
+        <v>0.05812503007122521</v>
+      </c>
+      <c r="D7">
+        <v>0.0330302775549492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.001158500025265342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005682729113670444</v>
+      </c>
+      <c r="C8">
+        <v>0.03439122670645063</v>
+      </c>
+      <c r="D8">
+        <v>0.04096387589110177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002958104540514275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005131246859275043</v>
+      </c>
+      <c r="C9">
+        <v>0.07026212800272934</v>
+      </c>
+      <c r="D9">
+        <v>0.07671198007283733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00230466635084521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005830242229246121</v>
+      </c>
+      <c r="C10">
+        <v>0.05653939044809463</v>
+      </c>
+      <c r="D10">
+        <v>-0.1953811052753424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003354083883827024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005516420206143499</v>
+      </c>
+      <c r="C11">
+        <v>0.07922385787959312</v>
+      </c>
+      <c r="D11">
+        <v>0.0644242284017575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001612993044532266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00399609795508977</v>
+      </c>
+      <c r="C12">
+        <v>0.06413861294203939</v>
+      </c>
+      <c r="D12">
+        <v>0.05217669887952025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002912911900617982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008316727847346498</v>
+      </c>
+      <c r="C13">
+        <v>0.06671958932940426</v>
+      </c>
+      <c r="D13">
+        <v>0.06357642082740865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002022266153005103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006091506380936768</v>
+      </c>
+      <c r="C14">
+        <v>0.04222472365939462</v>
+      </c>
+      <c r="D14">
+        <v>0.009991544432767049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006321618434072539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005786801304425644</v>
+      </c>
+      <c r="C15">
+        <v>0.0406562688424703</v>
+      </c>
+      <c r="D15">
+        <v>0.02975477256892251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009452277234230541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004931245783421394</v>
+      </c>
+      <c r="C16">
+        <v>0.06402742698732052</v>
+      </c>
+      <c r="D16">
+        <v>0.05672032769829873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0003373490626984476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008842630941133198</v>
+      </c>
+      <c r="C20">
+        <v>0.06356923792759066</v>
+      </c>
+      <c r="D20">
+        <v>0.04976797777968358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006746967079682118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009562287225804723</v>
+      </c>
+      <c r="C21">
+        <v>0.01945116037307637</v>
+      </c>
+      <c r="D21">
+        <v>0.0430043745470355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02296147174052438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006636900370146887</v>
+      </c>
+      <c r="C22">
+        <v>0.08743811025600837</v>
+      </c>
+      <c r="D22">
+        <v>0.1222124943133002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02274814828344337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006448698588550332</v>
+      </c>
+      <c r="C23">
+        <v>0.08794937342747158</v>
+      </c>
+      <c r="D23">
+        <v>0.1230310648568773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002730415181122332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005480283949550973</v>
+      </c>
+      <c r="C24">
+        <v>0.0756827780614928</v>
+      </c>
+      <c r="D24">
+        <v>0.06835037687353687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00434443719114449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003056327894330676</v>
+      </c>
+      <c r="C25">
+        <v>0.07792563892194516</v>
+      </c>
+      <c r="D25">
+        <v>0.06659055237606538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003233138463618133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003644837620692975</v>
+      </c>
+      <c r="C26">
+        <v>0.03876255789310915</v>
+      </c>
+      <c r="D26">
+        <v>0.02572754416588128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00605294375351371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001241541063804979</v>
+      </c>
+      <c r="C28">
+        <v>0.1045396251335817</v>
+      </c>
+      <c r="D28">
+        <v>-0.320841396176871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008865569288651734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002627105909794453</v>
+      </c>
+      <c r="C29">
+        <v>0.04860190065032152</v>
+      </c>
+      <c r="D29">
+        <v>0.009317003221717605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006453240193630403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009693807179020101</v>
+      </c>
+      <c r="C30">
+        <v>0.1421664386187235</v>
+      </c>
+      <c r="D30">
+        <v>0.1093603435203863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001049524549900807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006178547475547129</v>
+      </c>
+      <c r="C31">
+        <v>0.04351828019142669</v>
+      </c>
+      <c r="D31">
+        <v>0.03176235815251239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001624535584250384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003510472556919062</v>
+      </c>
+      <c r="C32">
+        <v>0.03963833603995578</v>
+      </c>
+      <c r="D32">
+        <v>0.02680778110614888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002194525302026111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009004320079913404</v>
+      </c>
+      <c r="C33">
+        <v>0.08828475206855391</v>
+      </c>
+      <c r="D33">
+        <v>0.06581010055266699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003821830622025724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004051538154924159</v>
+      </c>
+      <c r="C34">
+        <v>0.05722263425507913</v>
+      </c>
+      <c r="D34">
+        <v>0.0588611923846601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0005638494767437593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005256521435792104</v>
+      </c>
+      <c r="C35">
+        <v>0.04072218011854677</v>
+      </c>
+      <c r="D35">
+        <v>0.02073299368449869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005416843804125641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001519354569679014</v>
+      </c>
+      <c r="C36">
+        <v>0.02437022797405156</v>
+      </c>
+      <c r="D36">
+        <v>0.02524711085751142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0002453884085314148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009241833267557308</v>
+      </c>
+      <c r="C38">
+        <v>0.03809705335877794</v>
+      </c>
+      <c r="D38">
+        <v>0.01334643673530319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01391291650481342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001434618439944197</v>
+      </c>
+      <c r="C39">
+        <v>0.1139192924463626</v>
+      </c>
+      <c r="D39">
+        <v>0.07814351903511538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008308209099499341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003470777355995922</v>
+      </c>
+      <c r="C40">
+        <v>0.08966059822199964</v>
+      </c>
+      <c r="D40">
+        <v>0.01738518154910804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.000750995131299477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007159095308040164</v>
+      </c>
+      <c r="C41">
+        <v>0.0386941031298902</v>
+      </c>
+      <c r="D41">
+        <v>0.03887779096212327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002616788798288554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003866077507147122</v>
+      </c>
+      <c r="C43">
+        <v>0.05333207437852628</v>
+      </c>
+      <c r="D43">
+        <v>0.02750286168177763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01381084418268753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002874646976879224</v>
+      </c>
+      <c r="C44">
+        <v>0.1050796974247759</v>
+      </c>
+      <c r="D44">
+        <v>0.070410017016745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008630799553099298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001616274375294465</v>
+      </c>
+      <c r="C46">
+        <v>0.03237872781052058</v>
+      </c>
+      <c r="D46">
+        <v>0.0341409883544038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001545502100328639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.001969741830612876</v>
+      </c>
+      <c r="C47">
+        <v>0.03470363623540669</v>
+      </c>
+      <c r="D47">
+        <v>0.02243959854555733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003107563440385183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006634098164893075</v>
+      </c>
+      <c r="C48">
+        <v>0.03018320442427519</v>
+      </c>
+      <c r="D48">
+        <v>0.03682568422004524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.007518957299265155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01725311323642093</v>
+      </c>
+      <c r="C49">
+        <v>0.1895421716481487</v>
+      </c>
+      <c r="D49">
+        <v>0.006457516551426633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0007461125333643921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00344014651509233</v>
+      </c>
+      <c r="C50">
+        <v>0.0425522073494223</v>
+      </c>
+      <c r="D50">
+        <v>0.03917097212324699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>2.119150160965482e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004678666135841245</v>
+      </c>
+      <c r="C51">
+        <v>0.02572628386915936</v>
+      </c>
+      <c r="D51">
+        <v>0.02123107687046554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001979395148336803</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02118994405341707</v>
+      </c>
+      <c r="C53">
+        <v>0.1714774859825702</v>
+      </c>
+      <c r="D53">
+        <v>0.02269617112089494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001795073922222834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008715200032669073</v>
+      </c>
+      <c r="C54">
+        <v>0.05297750594710225</v>
+      </c>
+      <c r="D54">
+        <v>0.04661363548848282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003383316386307184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009454142690718417</v>
+      </c>
+      <c r="C55">
+        <v>0.1075134456352008</v>
+      </c>
+      <c r="D55">
+        <v>0.04114532863106989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003517449941825289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02014526473977564</v>
+      </c>
+      <c r="C56">
+        <v>0.1758625730363686</v>
+      </c>
+      <c r="D56">
+        <v>0.0158858025209147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004107345482131449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01905015800945156</v>
+      </c>
+      <c r="C58">
+        <v>0.1046713626318757</v>
+      </c>
+      <c r="D58">
+        <v>0.07288904676369685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00650879618350159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01056969722910461</v>
+      </c>
+      <c r="C59">
+        <v>0.1686574337428861</v>
+      </c>
+      <c r="D59">
+        <v>-0.3420672727488909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.002145221599594477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0248702052859373</v>
+      </c>
+      <c r="C60">
+        <v>0.2255296538910018</v>
+      </c>
+      <c r="D60">
+        <v>0.0203688268552944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01247646879307061</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001858673649145478</v>
+      </c>
+      <c r="C61">
+        <v>0.09449937794501738</v>
+      </c>
+      <c r="D61">
+        <v>0.05959052994100725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1550262196180523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1490473999923759</v>
+      </c>
+      <c r="C62">
+        <v>0.09616253198754104</v>
+      </c>
+      <c r="D62">
+        <v>0.02582325418487814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0006592809758455131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006471725703841549</v>
+      </c>
+      <c r="C63">
+        <v>0.05337079206118574</v>
+      </c>
+      <c r="D63">
+        <v>0.03249979355274748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001262106189536981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01579499453129055</v>
+      </c>
+      <c r="C64">
+        <v>0.1046531294055843</v>
+      </c>
+      <c r="D64">
+        <v>0.05712968171251154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003203173137701363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01778786511572414</v>
+      </c>
+      <c r="C65">
+        <v>0.121541690244709</v>
+      </c>
+      <c r="D65">
+        <v>0.02467594082052979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00438782772442159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01342619155874394</v>
+      </c>
+      <c r="C66">
+        <v>0.161916516300354</v>
+      </c>
+      <c r="D66">
+        <v>0.1097318693696111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002475547690501665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01543674090928237</v>
+      </c>
+      <c r="C67">
+        <v>0.06965770207333738</v>
+      </c>
+      <c r="D67">
+        <v>0.02592114221067556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005289193974686632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001259139563905876</v>
+      </c>
+      <c r="C68">
+        <v>0.08762473743513717</v>
+      </c>
+      <c r="D68">
+        <v>-0.2569780334711333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0008888041218840203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006399246719305459</v>
+      </c>
+      <c r="C69">
+        <v>0.05231730901174206</v>
+      </c>
+      <c r="D69">
+        <v>0.0376190676939302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0009523887372850852</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002026262467658776</v>
+      </c>
+      <c r="C70">
+        <v>0.005989019989191961</v>
+      </c>
+      <c r="D70">
+        <v>0.0005557616117510154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0005963736404265627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006141545886731292</v>
+      </c>
+      <c r="C71">
+        <v>0.09225419896705507</v>
+      </c>
+      <c r="D71">
+        <v>-0.3003117005017705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004047485831922075</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01632881400572152</v>
+      </c>
+      <c r="C72">
+        <v>0.1562948657531578</v>
+      </c>
+      <c r="D72">
+        <v>0.01303342485854227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.006508399539526444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03168117074085655</v>
+      </c>
+      <c r="C73">
+        <v>0.2827061981558488</v>
+      </c>
+      <c r="D73">
+        <v>0.05650985927996572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00558030576983689</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002232657028466916</v>
+      </c>
+      <c r="C74">
+        <v>0.1023786166621077</v>
+      </c>
+      <c r="D74">
+        <v>0.03776712894890189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003798845280901083</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01078819434785742</v>
+      </c>
+      <c r="C75">
+        <v>0.1220581792764105</v>
+      </c>
+      <c r="D75">
+        <v>0.02375376127200893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008409170539646441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02213739199625898</v>
+      </c>
+      <c r="C76">
+        <v>0.1473190393936013</v>
+      </c>
+      <c r="D76">
+        <v>0.05872909147181673</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001056423177165219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02163437967467585</v>
+      </c>
+      <c r="C77">
+        <v>0.1126917775067863</v>
+      </c>
+      <c r="D77">
+        <v>0.05107581115332441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001209752214098288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01486832487161209</v>
+      </c>
+      <c r="C78">
+        <v>0.09635461750448371</v>
+      </c>
+      <c r="D78">
+        <v>0.07780290470995098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02213671785945722</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03845569093552813</v>
+      </c>
+      <c r="C79">
+        <v>0.156607535532067</v>
+      </c>
+      <c r="D79">
+        <v>0.03197056797823375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006990293177952691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01006211993021587</v>
+      </c>
+      <c r="C80">
+        <v>0.03770606042612402</v>
+      </c>
+      <c r="D80">
+        <v>0.03185491932074194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006701187296461509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01559763229152021</v>
+      </c>
+      <c r="C81">
+        <v>0.1292799369738837</v>
+      </c>
+      <c r="D81">
+        <v>0.03854765996287402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004521496049072021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01988845297517547</v>
+      </c>
+      <c r="C82">
+        <v>0.1390047762336644</v>
+      </c>
+      <c r="D82">
+        <v>0.04026572890708074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006090357104647516</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01045222315974063</v>
+      </c>
+      <c r="C83">
+        <v>0.05922084824025307</v>
+      </c>
+      <c r="D83">
+        <v>0.05001143036208571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01127878081669541</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01177562090399173</v>
+      </c>
+      <c r="C84">
+        <v>0.03711589315939697</v>
+      </c>
+      <c r="D84">
+        <v>-0.002243155831655084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01362614597171096</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02913123487681042</v>
+      </c>
+      <c r="C85">
+        <v>0.1244575854915136</v>
+      </c>
+      <c r="D85">
+        <v>0.04013545181946146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002376279139305324</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004584544743415922</v>
+      </c>
+      <c r="C86">
+        <v>0.05055902237135786</v>
+      </c>
+      <c r="D86">
+        <v>0.02744306743015918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002800030713028582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01072312905579968</v>
+      </c>
+      <c r="C87">
+        <v>0.1278249877404909</v>
+      </c>
+      <c r="D87">
+        <v>0.07606776885411974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01126207724213771</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00312254331116104</v>
+      </c>
+      <c r="C88">
+        <v>0.06339460805548802</v>
+      </c>
+      <c r="D88">
+        <v>0.0262224627716129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01105573848479757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001340040168186846</v>
+      </c>
+      <c r="C89">
+        <v>0.14033000069657</v>
+      </c>
+      <c r="D89">
+        <v>-0.3184980050578123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003311138271541351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007027759224676881</v>
+      </c>
+      <c r="C90">
+        <v>0.1210919570024621</v>
+      </c>
+      <c r="D90">
+        <v>-0.3137209804915541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006616894201379145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01032037714709328</v>
+      </c>
+      <c r="C91">
+        <v>0.09916844280864906</v>
+      </c>
+      <c r="D91">
+        <v>0.02491354347149734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.009024098786877091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009769721730931839</v>
+      </c>
+      <c r="C92">
+        <v>0.1351078635854137</v>
+      </c>
+      <c r="D92">
+        <v>-0.3218605712419668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002414679377657422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00491416254141079</v>
+      </c>
+      <c r="C93">
+        <v>0.1062122398642238</v>
+      </c>
+      <c r="D93">
+        <v>-0.2994308735144187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002721127643189216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02150541290439016</v>
+      </c>
+      <c r="C94">
+        <v>0.1428736116035253</v>
+      </c>
+      <c r="D94">
+        <v>0.05228984342985044</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001768109786900321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0164135102261641</v>
+      </c>
+      <c r="C95">
+        <v>0.1213838691152772</v>
+      </c>
+      <c r="D95">
+        <v>0.06570414928712688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.007036972238553453</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03706719190509983</v>
+      </c>
+      <c r="C97">
+        <v>0.2244019234352161</v>
+      </c>
+      <c r="D97">
+        <v>0.001771108600001699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003814520878711279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03769481647979548</v>
+      </c>
+      <c r="C98">
+        <v>0.2557275817771406</v>
+      </c>
+      <c r="D98">
+        <v>0.03647847992162315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860463001191869</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813943594107624</v>
+      </c>
+      <c r="C99">
+        <v>-0.1193828326345894</v>
+      </c>
+      <c r="D99">
+        <v>-0.02324973549315605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000811842284336067</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002668911572732512</v>
+      </c>
+      <c r="C101">
+        <v>0.04872975704160927</v>
+      </c>
+      <c r="D101">
+        <v>0.009708615865270899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
